--- a/INTLINE/data/536/BIDN/SEKI/old/EXDB.xlsx
+++ b/INTLINE/data/536/BIDN/SEKI/old/EXDB.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="115">
   <si>
     <t xml:space="preserve">EXTERNAL DEBT </t>
   </si>
@@ -373,13 +373,10 @@
     <t>2019</t>
   </si>
   <si>
-    <t>Q4*</t>
+    <t>Q4**</t>
   </si>
   <si>
-    <t>Q3**</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Last update   : 15/11/2021</t>
+    <t xml:space="preserve"> Last update   : 15/2/2022</t>
   </si>
 </sst>
 </file>
@@ -1620,6 +1617,24 @@
     <xf numFmtId="0" fontId="31" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1644,26 +1659,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4092,13 +4089,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BR117"/>
+  <dimension ref="B1:BS117"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="10" ySplit="6" topLeftCell="BQ7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="6" topLeftCell="BR7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="BU12" sqref="BU12"/>
+      <selection pane="bottomRight" activeCell="BT6" sqref="BT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -4129,11 +4126,11 @@
     <col min="40" max="42" width="12.7109375" style="11" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="43" max="43" width="12.7109375" style="11" customWidth="1" collapsed="1"/>
     <col min="44" max="58" width="14.7109375" style="11" customWidth="1"/>
-    <col min="59" max="70" width="15.7109375" style="11" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="11"/>
+    <col min="59" max="71" width="15.7109375" style="11" customWidth="1"/>
+    <col min="72" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:70" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:71" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="113" t="s">
         <v>105</v>
       </c>
@@ -4146,7 +4143,7 @@
       <c r="I1" s="113"/>
       <c r="J1" s="106"/>
     </row>
-    <row r="2" spans="2:70" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:71" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="113" t="s">
         <v>106</v>
       </c>
@@ -4167,28 +4164,28 @@
       <c r="Q2" s="105"/>
       <c r="R2" s="105"/>
     </row>
-    <row r="3" spans="2:70" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
+    <row r="3" spans="2:71" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
       <c r="BA3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="2:70" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="119" t="s">
+    <row r="4" spans="2:71" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
       <c r="H5" s="107">
         <v>2006</v>
       </c>
@@ -4253,61 +4250,62 @@
       <c r="AM5" s="99">
         <v>2013</v>
       </c>
-      <c r="AN5" s="123">
+      <c r="AN5" s="129">
         <v>2014</v>
       </c>
-      <c r="AO5" s="124"/>
-      <c r="AP5" s="124"/>
-      <c r="AQ5" s="125"/>
-      <c r="AR5" s="123">
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="131"/>
+      <c r="AR5" s="129">
         <v>2015</v>
       </c>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="126">
+      <c r="AS5" s="132"/>
+      <c r="AT5" s="132"/>
+      <c r="AU5" s="132"/>
+      <c r="AV5" s="123">
         <v>2016</v>
       </c>
-      <c r="AW5" s="126"/>
-      <c r="AX5" s="126"/>
-      <c r="AY5" s="126"/>
-      <c r="AZ5" s="126">
+      <c r="AW5" s="123"/>
+      <c r="AX5" s="123"/>
+      <c r="AY5" s="123"/>
+      <c r="AZ5" s="123">
         <v>2017</v>
       </c>
-      <c r="BA5" s="126"/>
-      <c r="BB5" s="126"/>
-      <c r="BC5" s="126"/>
-      <c r="BD5" s="128" t="s">
+      <c r="BA5" s="123"/>
+      <c r="BB5" s="123"/>
+      <c r="BC5" s="123"/>
+      <c r="BD5" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="BE5" s="129"/>
-      <c r="BF5" s="129"/>
-      <c r="BG5" s="130"/>
-      <c r="BH5" s="131" t="s">
+      <c r="BE5" s="119"/>
+      <c r="BF5" s="119"/>
+      <c r="BG5" s="120"/>
+      <c r="BH5" s="121" t="s">
         <v>112</v>
       </c>
-      <c r="BI5" s="131"/>
-      <c r="BJ5" s="131"/>
-      <c r="BK5" s="131"/>
-      <c r="BL5" s="128">
+      <c r="BI5" s="121"/>
+      <c r="BJ5" s="121"/>
+      <c r="BK5" s="121"/>
+      <c r="BL5" s="118">
         <v>2020</v>
       </c>
-      <c r="BM5" s="129"/>
-      <c r="BN5" s="129"/>
-      <c r="BO5" s="129"/>
-      <c r="BP5" s="128">
+      <c r="BM5" s="119"/>
+      <c r="BN5" s="119"/>
+      <c r="BO5" s="119"/>
+      <c r="BP5" s="118">
         <v>2021</v>
       </c>
-      <c r="BQ5" s="129"/>
-      <c r="BR5" s="130"/>
-    </row>
-    <row r="6" spans="2:70" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="121"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
+      <c r="BQ5" s="119"/>
+      <c r="BR5" s="119"/>
+      <c r="BS5" s="120"/>
+    </row>
+    <row r="6" spans="2:71" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
       <c r="H6" s="69" t="s">
         <v>2</v>
       </c>
@@ -4483,10 +4481,10 @@
         <v>33</v>
       </c>
       <c r="BN6" s="12" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="BO6" s="12" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="BP6" s="12" t="s">
         <v>108</v>
@@ -4495,10 +4493,13 @@
         <v>109</v>
       </c>
       <c r="BR6" s="12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="2:70" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="BS6" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -4568,8 +4569,9 @@
       <c r="BP7" s="17"/>
       <c r="BQ7" s="17"/>
       <c r="BR7" s="17"/>
-    </row>
-    <row r="8" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS7" s="17"/>
+    </row>
+    <row r="8" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
@@ -4767,8 +4769,11 @@
       <c r="BR8" s="82">
         <v>205538.44154826252</v>
       </c>
-    </row>
-    <row r="9" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS8" s="82">
+        <v>200174.64315450197</v>
+      </c>
+    </row>
+    <row r="9" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B9" s="15"/>
       <c r="C9" s="11" t="s">
         <v>37</v>
@@ -4967,8 +4972,11 @@
       <c r="BR9" s="82">
         <v>150.863557014175</v>
       </c>
-    </row>
-    <row r="10" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS9" s="82">
+        <v>107.49530746603166</v>
+      </c>
+    </row>
+    <row r="10" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B10" s="15"/>
       <c r="D10" s="11" t="s">
         <v>39</v>
@@ -5166,8 +5174,11 @@
       <c r="BR10" s="86">
         <v>150.863557014175</v>
       </c>
-    </row>
-    <row r="11" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS10" s="86">
+        <v>107.49530746603166</v>
+      </c>
+    </row>
+    <row r="11" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B11" s="15"/>
       <c r="D11" s="11" t="s">
         <v>41</v>
@@ -5365,8 +5376,11 @@
       <c r="BR11" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS11" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B12" s="15"/>
       <c r="D12" s="11" t="s">
         <v>43</v>
@@ -5564,8 +5578,11 @@
       <c r="BR12" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS12" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
       <c r="D13" s="11" t="s">
         <v>45</v>
@@ -5763,8 +5780,11 @@
       <c r="BR13" s="89">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS13" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B14" s="15"/>
       <c r="C14" s="11" t="s">
         <v>47</v>
@@ -5962,8 +5982,11 @@
       <c r="BR14" s="82">
         <v>205387.57799124834</v>
       </c>
-    </row>
-    <row r="15" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS14" s="82">
+        <v>200067.14784703593</v>
+      </c>
+    </row>
+    <row r="15" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B15" s="15"/>
       <c r="D15" s="11" t="s">
         <v>49</v>
@@ -6160,8 +6183,11 @@
       <c r="BR15" s="86">
         <v>148734.37903536845</v>
       </c>
-    </row>
-    <row r="16" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS15" s="86">
+        <v>143602.88824464369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B16" s="15"/>
       <c r="D16" s="11" t="s">
         <v>51</v>
@@ -6358,8 +6384,11 @@
       <c r="BR16" s="86">
         <v>56653.198955879881</v>
       </c>
-    </row>
-    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS16" s="86">
+        <v>56464.259602392238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B17" s="15"/>
       <c r="D17" s="11" t="s">
         <v>52</v>
@@ -6556,8 +6585,11 @@
       <c r="BR17" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS17" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B18" s="15"/>
       <c r="D18" s="11" t="s">
         <v>53</v>
@@ -6754,8 +6786,11 @@
       <c r="BR18" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS18" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B19" s="15"/>
       <c r="H19" s="81" t="s">
         <v>104</v>
@@ -6836,8 +6871,9 @@
       <c r="BP19" s="86"/>
       <c r="BQ19" s="86"/>
       <c r="BR19" s="86"/>
-    </row>
-    <row r="20" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS19" s="86"/>
+    </row>
+    <row r="20" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>54</v>
       </c>
@@ -7036,8 +7072,11 @@
       <c r="BR20" s="82">
         <v>9107.7884162636074</v>
       </c>
-    </row>
-    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS20" s="82">
+        <v>9018.0422932226156</v>
+      </c>
+    </row>
+    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B21" s="15"/>
       <c r="C21" s="11" t="s">
         <v>56</v>
@@ -7235,8 +7274,11 @@
       <c r="BR21" s="82">
         <v>10.637624343605893</v>
       </c>
-    </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS21" s="82">
+        <v>10.669660892616616</v>
+      </c>
+    </row>
+    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B22" s="15"/>
       <c r="D22" s="11" t="s">
         <v>57</v>
@@ -7433,8 +7475,11 @@
       <c r="BR22" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS22" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B23" s="15"/>
       <c r="D23" s="11" t="s">
         <v>58</v>
@@ -7631,8 +7676,11 @@
       <c r="BR23" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS23" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B24" s="15"/>
       <c r="D24" s="11" t="s">
         <v>59</v>
@@ -7829,8 +7877,11 @@
       <c r="BR24" s="86">
         <v>10.637624343605893</v>
       </c>
-    </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS24" s="86">
+        <v>10.669660892616616</v>
+      </c>
+    </row>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="D25" s="11" t="s">
         <v>61</v>
@@ -8027,8 +8078,11 @@
       <c r="BR25" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS25" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="11" t="s">
         <v>62</v>
@@ -8226,8 +8280,11 @@
       <c r="BR26" s="82">
         <v>9097.1507919200012</v>
       </c>
-    </row>
-    <row r="27" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS26" s="82">
+        <v>9007.3726323299998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="D27" s="11" t="s">
         <v>63</v>
@@ -8424,8 +8481,11 @@
       <c r="BR27" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS27" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="D28" s="11" t="s">
         <v>64</v>
@@ -8622,8 +8682,11 @@
       <c r="BR28" s="86">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS28" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="D29" s="11" t="s">
         <v>65</v>
@@ -8820,8 +8883,11 @@
       <c r="BR29" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS29" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="E30" s="11" t="s">
         <v>46</v>
@@ -9015,8 +9081,11 @@
       <c r="BR30" s="86">
         <v>9097.1507919200012</v>
       </c>
-    </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS30" s="86">
+        <v>9007.3726323299998</v>
+      </c>
+    </row>
+    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="H31" s="81" t="s">
         <v>104</v>
@@ -9097,8 +9166,9 @@
       <c r="BP31" s="86"/>
       <c r="BQ31" s="86"/>
       <c r="BR31" s="86"/>
-    </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS31" s="86"/>
+    </row>
+    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
         <v>66</v>
       </c>
@@ -9275,28 +9345,31 @@
         <v>35244.797249899166</v>
       </c>
       <c r="BL32" s="82">
-        <v>35580.399415178064</v>
+        <v>35580.304712451514</v>
       </c>
       <c r="BM32" s="82">
-        <v>34776.75535909897</v>
+        <v>34776.646982648177</v>
       </c>
       <c r="BN32" s="82">
-        <v>33671.236698403583</v>
+        <v>33671.132797076527</v>
       </c>
       <c r="BO32" s="82">
-        <v>33600.331967050151</v>
+        <v>33600.222076979422</v>
       </c>
       <c r="BP32" s="82">
-        <v>34042.952218129518</v>
+        <v>34042.840542632446</v>
       </c>
       <c r="BQ32" s="82">
-        <v>33217.025759777061</v>
+        <v>33216.954528259819</v>
       </c>
       <c r="BR32" s="82">
-        <v>34005.654343178088</v>
-      </c>
-    </row>
-    <row r="33" spans="2:70" x14ac:dyDescent="0.2">
+        <v>34017.387785138715</v>
+      </c>
+      <c r="BS32" s="82">
+        <v>32961.228011395673</v>
+      </c>
+    </row>
+    <row r="33" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="11" t="s">
         <v>68</v>
@@ -9474,28 +9547,31 @@
         <v>18132.926127178722</v>
       </c>
       <c r="BL33" s="82">
-        <v>18199.693717875096</v>
+        <v>18199.6937178751</v>
       </c>
       <c r="BM33" s="82">
         <v>17007.762319512978</v>
       </c>
       <c r="BN33" s="82">
-        <v>16647.993681668308</v>
+        <v>16647.993681668311</v>
       </c>
       <c r="BO33" s="82">
-        <v>17301.195761151092</v>
+        <v>17301.195761151106</v>
       </c>
       <c r="BP33" s="82">
-        <v>17630.085398483694</v>
+        <v>17630.085542261091</v>
       </c>
       <c r="BQ33" s="82">
-        <v>17240.899541091356</v>
+        <v>17240.935235622557</v>
       </c>
       <c r="BR33" s="82">
-        <v>17914.980247770614</v>
-      </c>
-    </row>
-    <row r="34" spans="2:70" x14ac:dyDescent="0.2">
+        <v>17926.822028268914</v>
+      </c>
+      <c r="BS33" s="82">
+        <v>18127.32386703161</v>
+      </c>
+    </row>
+    <row r="34" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="D34" s="11" t="s">
         <v>69</v>
@@ -9672,28 +9748,31 @@
         <v>2619.8591223386998</v>
       </c>
       <c r="BL34" s="86">
-        <v>2146.7926435023505</v>
+        <v>2146.792643502351</v>
       </c>
       <c r="BM34" s="86">
         <v>1787.5222508109541</v>
       </c>
       <c r="BN34" s="86">
-        <v>1637.5214326941991</v>
+        <v>1637.5214326942003</v>
       </c>
       <c r="BO34" s="86">
-        <v>1846.8111574987008</v>
+        <v>1846.8111574987001</v>
       </c>
       <c r="BP34" s="86">
         <v>2087.4756548880005</v>
       </c>
       <c r="BQ34" s="86">
-        <v>2232.8260212928008</v>
+        <v>2232.8615712928008</v>
       </c>
       <c r="BR34" s="86">
-        <v>2144.1680507164001</v>
-      </c>
-    </row>
-    <row r="35" spans="2:70" x14ac:dyDescent="0.2">
+        <v>2156.0090693599</v>
+      </c>
+      <c r="BS34" s="86">
+        <v>2411.9211912574997</v>
+      </c>
+    </row>
+    <row r="35" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="D35" s="11" t="s">
         <v>70</v>
@@ -9870,28 +9949,31 @@
         <v>747.96923591999996</v>
       </c>
       <c r="BL35" s="86">
-        <v>511.10131880999995</v>
+        <v>511.10131881000001</v>
       </c>
       <c r="BM35" s="86">
         <v>491.87795932000006</v>
       </c>
       <c r="BN35" s="86">
-        <v>707.54780726000001</v>
+        <v>707.54780725999979</v>
       </c>
       <c r="BO35" s="86">
-        <v>870.67121441000006</v>
+        <v>870.67121440999995</v>
       </c>
       <c r="BP35" s="86">
-        <v>727.32056098740009</v>
+        <v>727.32056098739986</v>
       </c>
       <c r="BQ35" s="86">
-        <v>588.94883704339998</v>
+        <v>588.94883704340009</v>
       </c>
       <c r="BR35" s="86">
-        <v>553.65317078659996</v>
-      </c>
-    </row>
-    <row r="36" spans="2:70" x14ac:dyDescent="0.2">
+        <v>553.65317078660007</v>
+      </c>
+      <c r="BS35" s="86">
+        <v>587.02375928969991</v>
+      </c>
+    </row>
+    <row r="36" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="D36" s="11" t="s">
         <v>71</v>
@@ -10077,7 +10159,7 @@
         <v>13019.449815869688</v>
       </c>
       <c r="BO36" s="86">
-        <v>12923.196263495285</v>
+        <v>12923.1962634953</v>
       </c>
       <c r="BP36" s="86">
         <v>13418.901863607534</v>
@@ -10088,8 +10170,11 @@
       <c r="BR36" s="86">
         <v>13928.171019760002</v>
       </c>
-    </row>
-    <row r="37" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS36" s="86">
+        <v>13914.073726484803</v>
+      </c>
+    </row>
+    <row r="37" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="D37" s="11" t="s">
         <v>72</v>
@@ -10278,16 +10363,19 @@
         <v>1660.5171257471054</v>
       </c>
       <c r="BP37" s="86">
-        <v>1396.3873190007582</v>
+        <v>1396.3874627781581</v>
       </c>
       <c r="BQ37" s="86">
-        <v>1446.8896021744911</v>
+        <v>1446.8897467056911</v>
       </c>
       <c r="BR37" s="86">
-        <v>1288.9880065076097</v>
-      </c>
-    </row>
-    <row r="38" spans="2:70" x14ac:dyDescent="0.2">
+        <v>1288.9887683624099</v>
+      </c>
+      <c r="BS37" s="86">
+        <v>1214.3051899996069</v>
+      </c>
+    </row>
+    <row r="38" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="11" t="s">
         <v>73</v>
@@ -10465,28 +10553,31 @@
         <v>17111.871122720444</v>
       </c>
       <c r="BL38" s="82">
-        <v>17380.705697302972</v>
+        <v>17380.610994576415</v>
       </c>
       <c r="BM38" s="82">
-        <v>17768.993039585992</v>
+        <v>17768.884663135195</v>
       </c>
       <c r="BN38" s="82">
-        <v>17023.243016735276</v>
+        <v>17023.139115408219</v>
       </c>
       <c r="BO38" s="82">
-        <v>16299.136205899056</v>
+        <v>16299.02631582832</v>
       </c>
       <c r="BP38" s="82">
-        <v>16412.866819645827</v>
+        <v>16412.755000371355</v>
       </c>
       <c r="BQ38" s="82">
-        <v>15976.126218685707</v>
+        <v>15976.019292637262</v>
       </c>
       <c r="BR38" s="82">
-        <v>16090.674095407472</v>
-      </c>
-    </row>
-    <row r="39" spans="2:70" x14ac:dyDescent="0.2">
+        <v>16090.565756869799</v>
+      </c>
+      <c r="BS38" s="82">
+        <v>14833.904144364062</v>
+      </c>
+    </row>
+    <row r="39" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="D39" s="11" t="s">
         <v>74</v>
@@ -10663,28 +10754,31 @@
         <v>3445.4760913996438</v>
       </c>
       <c r="BL39" s="86">
-        <v>3657.5740006294718</v>
+        <v>3657.4792979029162</v>
       </c>
       <c r="BM39" s="86">
-        <v>4150.1776818925891</v>
+        <v>4150.0693054417943</v>
       </c>
       <c r="BN39" s="86">
-        <v>4078.6929182158769</v>
+        <v>4078.5890168888168</v>
       </c>
       <c r="BO39" s="86">
-        <v>4787.4896172579574</v>
+        <v>4787.3797271872172</v>
       </c>
       <c r="BP39" s="86">
-        <v>5271.674485770629</v>
+        <v>5271.5626664961565</v>
       </c>
       <c r="BQ39" s="86">
-        <v>5449.1260272581076</v>
+        <v>5449.0191012096602</v>
       </c>
       <c r="BR39" s="86">
-        <v>5891.0103515055716</v>
-      </c>
-    </row>
-    <row r="40" spans="2:70" x14ac:dyDescent="0.2">
+        <v>5890.9020129678984</v>
+      </c>
+      <c r="BS39" s="86">
+        <v>5848.6803593980612</v>
+      </c>
+    </row>
+    <row r="40" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="D40" s="11" t="s">
         <v>75</v>
@@ -10867,22 +10961,25 @@
         <v>13615.695932397801</v>
       </c>
       <c r="BN40" s="86">
-        <v>12943.614161750198</v>
+        <v>12943.614161750202</v>
       </c>
       <c r="BO40" s="86">
-        <v>11510.637014342299</v>
+        <v>11510.637014342303</v>
       </c>
       <c r="BP40" s="86">
         <v>11140.1787639824</v>
       </c>
       <c r="BQ40" s="86">
-        <v>10526.3398353865</v>
+        <v>10526.339835386501</v>
       </c>
       <c r="BR40" s="86">
         <v>10198.9458025316</v>
       </c>
-    </row>
-    <row r="41" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS40" s="86">
+        <v>8984.5296336393003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="D41" s="11" t="s">
         <v>76</v>
@@ -11079,8 +11176,11 @@
       <c r="BR41" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS41" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="D42" s="11" t="s">
         <v>77</v>
@@ -11257,10 +11357,10 @@
         <v>3.3278777303</v>
       </c>
       <c r="BL42" s="110">
-        <v>3.2615400099000009</v>
+        <v>3.2615400099000005</v>
       </c>
       <c r="BM42" s="110">
-        <v>3.1194252955999993</v>
+        <v>3.1194252956000001</v>
       </c>
       <c r="BN42" s="110">
         <v>0.93593676920000013</v>
@@ -11269,16 +11369,19 @@
         <v>1.0095742988</v>
       </c>
       <c r="BP42" s="110">
-        <v>1.0135698927999999</v>
+        <v>1.0135698928000001</v>
       </c>
       <c r="BQ42" s="110">
-        <v>0.66035604110000012</v>
+        <v>0.66035604110000001</v>
       </c>
       <c r="BR42" s="110">
-        <v>0.71794137029999994</v>
-      </c>
-    </row>
-    <row r="43" spans="2:70" x14ac:dyDescent="0.2">
+        <v>0.71794137030000016</v>
+      </c>
+      <c r="BS42" s="110">
+        <v>0.6941513266999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="H43" s="81" t="s">
         <v>104</v>
@@ -11359,8 +11462,9 @@
       <c r="BP43" s="86"/>
       <c r="BQ43" s="86"/>
       <c r="BR43" s="86"/>
-    </row>
-    <row r="44" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BS43" s="86"/>
+    </row>
+    <row r="44" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="15" t="s">
         <v>78</v>
       </c>
@@ -11538,28 +11642,31 @@
         <v>165445.41477022556</v>
       </c>
       <c r="BL44" s="82">
-        <v>168349.93022500377</v>
+        <v>168439.94211557222</v>
       </c>
       <c r="BM44" s="82">
-        <v>173886.48725972301</v>
+        <v>174007.07259979111</v>
       </c>
       <c r="BN44" s="82">
-        <v>174356.12214286157</v>
+        <v>174480.23617563842</v>
       </c>
       <c r="BO44" s="82">
-        <v>174186.41999494206</v>
+        <v>174089.22652163947</v>
       </c>
       <c r="BP44" s="82">
-        <v>175439.52363612669</v>
+        <v>175480.87989960363</v>
       </c>
       <c r="BQ44" s="82">
-        <v>174843.8939902666</v>
+        <v>175190.06566571302</v>
       </c>
       <c r="BR44" s="82">
-        <v>174465.93573679935</v>
-      </c>
-    </row>
-    <row r="45" spans="2:70" x14ac:dyDescent="0.2">
+        <v>175329.88105034898</v>
+      </c>
+      <c r="BS44" s="82">
+        <v>172911.50946885205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="11" t="s">
         <v>80</v>
@@ -11737,28 +11844,31 @@
         <v>25010.789268324002</v>
       </c>
       <c r="BL45" s="82">
-        <v>25136.629411799539</v>
+        <v>25004.687316824842</v>
       </c>
       <c r="BM45" s="82">
-        <v>26188.978634685984</v>
+        <v>26032.666646994385</v>
       </c>
       <c r="BN45" s="82">
-        <v>26413.431982592992</v>
+        <v>26186.871427973994</v>
       </c>
       <c r="BO45" s="82">
-        <v>26322.250379015899</v>
+        <v>25907.726787828218</v>
       </c>
       <c r="BP45" s="82">
-        <v>27651.391926283104</v>
+        <v>27170.6100873582</v>
       </c>
       <c r="BQ45" s="82">
-        <v>30632.063721625702</v>
+        <v>29868.646636168305</v>
       </c>
       <c r="BR45" s="82">
-        <v>31964.0082732136</v>
-      </c>
-    </row>
-    <row r="46" spans="2:70" x14ac:dyDescent="0.2">
+        <v>31473.620667620002</v>
+      </c>
+      <c r="BS45" s="82">
+        <v>30371.753126668897</v>
+      </c>
+    </row>
+    <row r="46" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="D46" s="11" t="s">
         <v>81</v>
@@ -11941,22 +12051,25 @@
         <v>1047.4509548746839</v>
       </c>
       <c r="BN46" s="86">
-        <v>1031.2928375572003</v>
+        <v>1031.2928375571998</v>
       </c>
       <c r="BO46" s="86">
-        <v>676.72596299650024</v>
+        <v>671.22596299650013</v>
       </c>
       <c r="BP46" s="86">
-        <v>747.12685526149949</v>
+        <v>741.62685526150017</v>
       </c>
       <c r="BQ46" s="86">
-        <v>727.24267687010013</v>
+        <v>721.74267687010001</v>
       </c>
       <c r="BR46" s="86">
-        <v>802.18475974720036</v>
-      </c>
-    </row>
-    <row r="47" spans="2:70" x14ac:dyDescent="0.2">
+        <v>796.39643944540023</v>
+      </c>
+      <c r="BS46" s="86">
+        <v>774.73820651690016</v>
+      </c>
+    </row>
+    <row r="47" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="D47" s="11" t="s">
         <v>82</v>
@@ -12133,28 +12246,31 @@
         <v>10009.171209736896</v>
       </c>
       <c r="BL47" s="86">
-        <v>10500.291875726898</v>
+        <v>10409.3797254976</v>
       </c>
       <c r="BM47" s="86">
-        <v>12455.738902179502</v>
+        <v>12339.158757968697</v>
       </c>
       <c r="BN47" s="86">
-        <v>13341.782444334396</v>
+        <v>13211.296872272693</v>
       </c>
       <c r="BO47" s="86">
-        <v>13392.567470207798</v>
+        <v>13227.698362357409</v>
       </c>
       <c r="BP47" s="86">
-        <v>13296.701487194901</v>
+        <v>13138.484945167596</v>
       </c>
       <c r="BQ47" s="86">
-        <v>14559.534586671802</v>
+        <v>14193.775018255701</v>
       </c>
       <c r="BR47" s="86">
-        <v>14509.7416259601</v>
-      </c>
-    </row>
-    <row r="48" spans="2:70" x14ac:dyDescent="0.2">
+        <v>14279.057415462699</v>
+      </c>
+      <c r="BS47" s="86">
+        <v>14582.266680882298</v>
+      </c>
+    </row>
+    <row r="48" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="D48" s="11" t="s">
         <v>83</v>
@@ -12351,8 +12467,11 @@
       <c r="BR48" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS48" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="D49" s="11" t="s">
         <v>84</v>
@@ -12529,28 +12648,31 @@
         <v>13240.147226298899</v>
       </c>
       <c r="BL49" s="86">
-        <v>12305.9580037091</v>
+        <v>12264.958198505503</v>
       </c>
       <c r="BM49" s="86">
-        <v>11431.239996423597</v>
+        <v>11391.538531446904</v>
       </c>
       <c r="BN49" s="86">
-        <v>10836.329759946495</v>
+        <v>10740.283865679903</v>
       </c>
       <c r="BO49" s="86">
-        <v>10881.170918420699</v>
+        <v>10637.011210993307</v>
       </c>
       <c r="BP49" s="86">
-        <v>12176.073275834602</v>
+        <v>11856.349457885903</v>
       </c>
       <c r="BQ49" s="86">
-        <v>13857.503413202699</v>
+        <v>13494.057899374904</v>
       </c>
       <c r="BR49" s="86">
-        <v>14315.009222462699</v>
-      </c>
-    </row>
-    <row r="50" spans="2:70" x14ac:dyDescent="0.2">
+        <v>14067.2074845672</v>
+      </c>
+      <c r="BS49" s="86">
+        <v>13519.123406403402</v>
+      </c>
+    </row>
+    <row r="50" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="D50" s="11" t="s">
         <v>85</v>
@@ -12727,28 +12849,31 @@
         <v>767.98927169090655</v>
       </c>
       <c r="BL50" s="86">
-        <v>1273.0619805615008</v>
+        <v>1273.0318410197008</v>
       </c>
       <c r="BM50" s="86">
-        <v>1254.5487812081999</v>
+        <v>1254.5184027040998</v>
       </c>
       <c r="BN50" s="86">
-        <v>1204.0269407548997</v>
+        <v>1203.9978524641997</v>
       </c>
       <c r="BO50" s="86">
-        <v>1371.7860273908993</v>
+        <v>1371.7912514809998</v>
       </c>
       <c r="BP50" s="86">
-        <v>1431.4903079920998</v>
+        <v>1434.1488290432003</v>
       </c>
       <c r="BQ50" s="86">
-        <v>1487.7830448811001</v>
+        <v>1459.0710416676002</v>
       </c>
       <c r="BR50" s="86">
-        <v>2337.0726650435995</v>
-      </c>
-    </row>
-    <row r="51" spans="2:70" x14ac:dyDescent="0.2">
+        <v>2330.9593281447001</v>
+      </c>
+      <c r="BS50" s="86">
+        <v>1495.6248328663</v>
+      </c>
+    </row>
+    <row r="51" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="11" t="s">
         <v>86</v>
@@ -12926,28 +13051,31 @@
         <v>140434.62550190155</v>
       </c>
       <c r="BL51" s="82">
-        <v>143213.30081320423</v>
+        <v>143435.25479874737</v>
       </c>
       <c r="BM51" s="82">
-        <v>147697.50862503704</v>
+        <v>147974.40595279672</v>
       </c>
       <c r="BN51" s="82">
-        <v>147942.69016026857</v>
+        <v>148293.36474766443</v>
       </c>
       <c r="BO51" s="82">
-        <v>147864.16961592616</v>
+        <v>148181.49973381124</v>
       </c>
       <c r="BP51" s="82">
-        <v>147788.13170984358</v>
+        <v>148310.26981224545</v>
       </c>
       <c r="BQ51" s="82">
-        <v>144211.83026864089</v>
+        <v>145321.41902954472</v>
       </c>
       <c r="BR51" s="82">
-        <v>142501.92746358574</v>
-      </c>
-    </row>
-    <row r="52" spans="2:70" x14ac:dyDescent="0.2">
+        <v>143856.26038272897</v>
+      </c>
+      <c r="BS51" s="82">
+        <v>142539.75634218316</v>
+      </c>
+    </row>
+    <row r="52" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="D52" s="11" t="s">
         <v>87</v>
@@ -13124,28 +13252,31 @@
         <v>39325.114768972984</v>
       </c>
       <c r="BL52" s="86">
-        <v>42312.012400097665</v>
+        <v>42321.096417122164</v>
       </c>
       <c r="BM52" s="86">
-        <v>46954.737775937647</v>
+        <v>46955.510100878564</v>
       </c>
       <c r="BN52" s="86">
-        <v>46717.778003299565</v>
+        <v>46749.594419021269</v>
       </c>
       <c r="BO52" s="86">
-        <v>47331.665995353134</v>
+        <v>47315.526327980573</v>
       </c>
       <c r="BP52" s="86">
-        <v>49129.207362867957</v>
+        <v>49199.537531831476</v>
       </c>
       <c r="BQ52" s="86">
-        <v>50573.811286183154</v>
+        <v>50840.942928515542</v>
       </c>
       <c r="BR52" s="86">
-        <v>50201.474578762056</v>
-      </c>
-    </row>
-    <row r="53" spans="2:70" x14ac:dyDescent="0.2">
+        <v>50469.978664597271</v>
+      </c>
+      <c r="BS52" s="86">
+        <v>49772.086212571427</v>
+      </c>
+    </row>
+    <row r="53" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="D53" s="11" t="s">
         <v>88</v>
@@ -13322,28 +13453,31 @@
         <v>99967.440954592181</v>
       </c>
       <c r="BL53" s="86">
-        <v>99537.482395476152</v>
+        <v>99566.830026414304</v>
       </c>
       <c r="BM53" s="86">
-        <v>99557.182852327678</v>
+        <v>99625.068184819174</v>
       </c>
       <c r="BN53" s="86">
-        <v>100101.30637071739</v>
+        <v>100215.49559487747</v>
       </c>
       <c r="BO53" s="86">
-        <v>99564.221968860104</v>
+        <v>99678.474442589184</v>
       </c>
       <c r="BP53" s="86">
-        <v>97936.344720350928</v>
+        <v>98175.770636467671</v>
       </c>
       <c r="BQ53" s="86">
-        <v>93021.038945121327</v>
+        <v>93675.171769928202</v>
       </c>
       <c r="BR53" s="86">
-        <v>91772.371350243193</v>
-      </c>
-    </row>
-    <row r="54" spans="2:70" x14ac:dyDescent="0.2">
+        <v>92688.343053420205</v>
+      </c>
+      <c r="BS53" s="86">
+        <v>92298.167178918418</v>
+      </c>
+    </row>
+    <row r="54" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="D54" s="11" t="s">
         <v>89</v>
@@ -13540,8 +13674,11 @@
       <c r="BR54" s="81">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS54" s="81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="D55" s="11" t="s">
         <v>90</v>
@@ -13718,28 +13855,31 @@
         <v>463.5065500458</v>
       </c>
       <c r="BL55" s="86">
-        <v>443.04531255429993</v>
+        <v>454.31942150370003</v>
       </c>
       <c r="BM55" s="86">
-        <v>402.89439530039999</v>
+        <v>414.49777243879987</v>
       </c>
       <c r="BN55" s="86">
-        <v>438.91758407050014</v>
+        <v>452.57581544430002</v>
       </c>
       <c r="BO55" s="86">
-        <v>368.49573228669976</v>
+        <v>383.63408924499993</v>
       </c>
       <c r="BP55" s="86">
-        <v>299.18239429159996</v>
+        <v>313.33483792389995</v>
       </c>
       <c r="BQ55" s="86">
-        <v>323.82583445220001</v>
+        <v>312.77309125340003</v>
       </c>
       <c r="BR55" s="86">
-        <v>323.01173802919993</v>
-      </c>
-    </row>
-    <row r="56" spans="2:70" x14ac:dyDescent="0.2">
+        <v>290.79428626219999</v>
+      </c>
+      <c r="BS55" s="86">
+        <v>273.52199331259999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="D56" s="11" t="s">
         <v>91</v>
@@ -13916,28 +14056,31 @@
         <v>678.56322829059343</v>
       </c>
       <c r="BL56" s="86">
-        <v>920.76070507610007</v>
+        <v>1093.0089337071997</v>
       </c>
       <c r="BM56" s="86">
-        <v>782.69360147129976</v>
+        <v>979.32989466020013</v>
       </c>
       <c r="BN56" s="86">
-        <v>684.68820218110011</v>
+        <v>875.69891832140001</v>
       </c>
       <c r="BO56" s="86">
-        <v>599.78591942620005</v>
+        <v>803.86487399649991</v>
       </c>
       <c r="BP56" s="86">
-        <v>423.39723233310002</v>
+        <v>621.62680602240039</v>
       </c>
       <c r="BQ56" s="86">
-        <v>293.1542028842</v>
+        <v>492.53123984759998</v>
       </c>
       <c r="BR56" s="86">
-        <v>205.06979655129999</v>
-      </c>
-    </row>
-    <row r="57" spans="2:70" x14ac:dyDescent="0.2">
+        <v>407.14437844930006</v>
+      </c>
+      <c r="BS56" s="86">
+        <v>195.98095738070009</v>
+      </c>
+    </row>
+    <row r="57" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="H57" s="77"/>
       <c r="I57" s="76"/>
@@ -14002,8 +14145,9 @@
       <c r="BP57" s="86"/>
       <c r="BQ57" s="86"/>
       <c r="BR57" s="86"/>
-    </row>
-    <row r="58" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS57" s="86"/>
+    </row>
+    <row r="58" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="H58" s="76"/>
       <c r="I58" s="76"/>
@@ -14068,8 +14212,9 @@
       <c r="BP58" s="86"/>
       <c r="BQ58" s="86"/>
       <c r="BR58" s="86"/>
-    </row>
-    <row r="59" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS58" s="86"/>
+    </row>
+    <row r="59" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>92</v>
       </c>
@@ -14248,28 +14393,31 @@
         <v>403562.63098132057</v>
       </c>
       <c r="BL59" s="82">
-        <v>387685.48470793222</v>
+        <v>387775.40189577418</v>
       </c>
       <c r="BM59" s="82">
-        <v>407949.4570248159</v>
+        <v>408069.93398843321</v>
       </c>
       <c r="BN59" s="82">
-        <v>408195.18746199511</v>
+        <v>408319.19759344496</v>
       </c>
       <c r="BO59" s="82">
-        <v>417032.63476943068</v>
+        <v>416935.33140605735</v>
       </c>
       <c r="BP59" s="82">
-        <v>415482.01188735804</v>
+        <v>415523.25647533796</v>
       </c>
       <c r="BQ59" s="82">
-        <v>415926.51316305541</v>
+        <v>416272.61360698461</v>
       </c>
       <c r="BR59" s="82">
-        <v>423117.82004450355</v>
-      </c>
-    </row>
-    <row r="60" spans="2:70" x14ac:dyDescent="0.2">
+        <v>423993.4988000138</v>
+      </c>
+      <c r="BS59" s="82">
+        <v>415065.42292797228</v>
+      </c>
+    </row>
+    <row r="60" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="H60" s="76"/>
       <c r="I60" s="76"/>
@@ -14334,8 +14482,9 @@
       <c r="BP60" s="86"/>
       <c r="BQ60" s="86"/>
       <c r="BR60" s="86"/>
-    </row>
-    <row r="61" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="BS60" s="86"/>
+    </row>
+    <row r="61" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="26" t="s">
         <v>94</v>
       </c>
@@ -14405,8 +14554,9 @@
       <c r="BP61" s="86"/>
       <c r="BQ61" s="86"/>
       <c r="BR61" s="86"/>
-    </row>
-    <row r="62" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS61" s="86"/>
+    </row>
+    <row r="62" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B62" s="15"/>
       <c r="D62" s="11" t="s">
         <v>96</v>
@@ -14580,28 +14730,31 @@
         <v>7435.5045578702002</v>
       </c>
       <c r="BL62" s="86">
-        <v>7092.2646062954</v>
+        <v>7092.3267304654</v>
       </c>
       <c r="BM62" s="86">
-        <v>7103.9626122376003</v>
+        <v>7104.0247364076004</v>
       </c>
       <c r="BN62" s="86">
-        <v>7122.7018432019004</v>
+        <v>7122.7639673719004</v>
       </c>
       <c r="BO62" s="86">
-        <v>7808.584336764</v>
+        <v>7808.6464609340001</v>
       </c>
       <c r="BP62" s="86">
-        <v>8005.6615508647001</v>
+        <v>8005.755290264</v>
       </c>
       <c r="BQ62" s="86">
-        <v>7534.5204763759002</v>
+        <v>7534.6864417991992</v>
       </c>
       <c r="BR62" s="86">
-        <v>7166.5085505439019</v>
-      </c>
-    </row>
-    <row r="63" spans="2:70" x14ac:dyDescent="0.2">
+        <v>7166.7650642296012</v>
+      </c>
+      <c r="BS62" s="86">
+        <v>7555.276489774601</v>
+      </c>
+    </row>
+    <row r="63" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B63" s="15"/>
       <c r="D63" s="11" t="s">
         <v>97</v>
@@ -14775,28 +14928,31 @@
         <v>35118.189131785293</v>
       </c>
       <c r="BL63" s="86">
-        <v>34561.109368031597</v>
+        <v>34767.077902517696</v>
       </c>
       <c r="BM63" s="86">
-        <v>35622.672805530194</v>
+        <v>35837.58432135851</v>
       </c>
       <c r="BN63" s="86">
-        <v>35067.221760068598</v>
+        <v>35285.934469383086</v>
       </c>
       <c r="BO63" s="86">
-        <v>34314.314580850594</v>
+        <v>34588.763804458002</v>
       </c>
       <c r="BP63" s="86">
-        <v>33859.20128280569</v>
+        <v>34208.033292209002</v>
       </c>
       <c r="BQ63" s="86">
-        <v>34454.103188164299</v>
+        <v>34860.012708438495</v>
       </c>
       <c r="BR63" s="86">
-        <v>34245.733722804514</v>
-      </c>
-    </row>
-    <row r="64" spans="2:70" ht="14.25" x14ac:dyDescent="0.2">
+        <v>34816.950463810303</v>
+      </c>
+      <c r="BS63" s="86">
+        <v>34715.513535824604</v>
+      </c>
+    </row>
+    <row r="64" spans="2:71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="27"/>
       <c r="C64" s="28"/>
       <c r="D64" s="28"/>
@@ -14866,36 +15022,37 @@
       <c r="BP64" s="111"/>
       <c r="BQ64" s="111"/>
       <c r="BR64" s="111"/>
-    </row>
-    <row r="65" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS64" s="111"/>
+    </row>
+    <row r="65" spans="2:71" x14ac:dyDescent="0.2">
       <c r="I65" s="33"/>
     </row>
-    <row r="67" spans="2:70" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="118" t="s">
-        <v>115</v>
-      </c>
-      <c r="C67" s="118"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="118"/>
-      <c r="F67" s="118"/>
-      <c r="G67" s="118"/>
-      <c r="H67" s="118"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="118"/>
-      <c r="N67" s="118"/>
-      <c r="O67" s="118"/>
-      <c r="P67" s="118"/>
-      <c r="Q67" s="118"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="118"/>
+    <row r="67" spans="2:71" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="124" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="124"/>
+      <c r="D67" s="124"/>
+      <c r="E67" s="124"/>
+      <c r="F67" s="124"/>
+      <c r="G67" s="124"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="124"/>
+      <c r="K67" s="124"/>
+      <c r="L67" s="124"/>
+      <c r="M67" s="124"/>
+      <c r="N67" s="124"/>
+      <c r="O67" s="124"/>
+      <c r="P67" s="124"/>
+      <c r="Q67" s="124"/>
+      <c r="R67" s="124"/>
+      <c r="S67" s="124"/>
       <c r="BD67" s="112"/>
       <c r="BE67" s="112"/>
       <c r="BF67" s="112"/>
     </row>
-    <row r="68" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD68" s="112"/>
       <c r="BE68" s="112"/>
       <c r="BF68" s="112"/>
@@ -14911,8 +15068,9 @@
       <c r="BP68" s="112"/>
       <c r="BQ68" s="112"/>
       <c r="BR68" s="112"/>
-    </row>
-    <row r="69" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS68" s="112"/>
+    </row>
+    <row r="69" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD69" s="112"/>
       <c r="BE69" s="112"/>
       <c r="BF69" s="112"/>
@@ -14928,8 +15086,9 @@
       <c r="BP69" s="112"/>
       <c r="BQ69" s="112"/>
       <c r="BR69" s="112"/>
-    </row>
-    <row r="70" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS69" s="112"/>
+    </row>
+    <row r="70" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD70" s="112"/>
       <c r="BE70" s="112"/>
       <c r="BF70" s="112"/>
@@ -14945,8 +15104,9 @@
       <c r="BP70" s="112"/>
       <c r="BQ70" s="112"/>
       <c r="BR70" s="112"/>
-    </row>
-    <row r="71" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS70" s="112"/>
+    </row>
+    <row r="71" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD71" s="112"/>
       <c r="BE71" s="112"/>
       <c r="BF71" s="112"/>
@@ -14962,8 +15122,9 @@
       <c r="BP71" s="112"/>
       <c r="BQ71" s="112"/>
       <c r="BR71" s="112"/>
-    </row>
-    <row r="72" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS71" s="112"/>
+    </row>
+    <row r="72" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD72" s="112"/>
       <c r="BE72" s="112"/>
       <c r="BF72" s="112"/>
@@ -14979,8 +15140,9 @@
       <c r="BP72" s="112"/>
       <c r="BQ72" s="112"/>
       <c r="BR72" s="112"/>
-    </row>
-    <row r="73" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS72" s="112"/>
+    </row>
+    <row r="73" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD73" s="112"/>
       <c r="BE73" s="112"/>
       <c r="BF73" s="112"/>
@@ -14996,8 +15158,9 @@
       <c r="BP73" s="112"/>
       <c r="BQ73" s="112"/>
       <c r="BR73" s="112"/>
-    </row>
-    <row r="74" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS73" s="112"/>
+    </row>
+    <row r="74" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD74" s="112"/>
       <c r="BE74" s="112"/>
       <c r="BF74" s="112"/>
@@ -15013,8 +15176,9 @@
       <c r="BP74" s="112"/>
       <c r="BQ74" s="112"/>
       <c r="BR74" s="112"/>
-    </row>
-    <row r="75" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS74" s="112"/>
+    </row>
+    <row r="75" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD75" s="112"/>
       <c r="BE75" s="112"/>
       <c r="BF75" s="112"/>
@@ -15030,8 +15194,9 @@
       <c r="BP75" s="112"/>
       <c r="BQ75" s="112"/>
       <c r="BR75" s="112"/>
-    </row>
-    <row r="76" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS75" s="112"/>
+    </row>
+    <row r="76" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD76" s="112"/>
       <c r="BE76" s="112"/>
       <c r="BF76" s="112"/>
@@ -15047,8 +15212,9 @@
       <c r="BP76" s="112"/>
       <c r="BQ76" s="112"/>
       <c r="BR76" s="112"/>
-    </row>
-    <row r="77" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS76" s="112"/>
+    </row>
+    <row r="77" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD77" s="112"/>
       <c r="BE77" s="112"/>
       <c r="BF77" s="112"/>
@@ -15064,8 +15230,9 @@
       <c r="BP77" s="112"/>
       <c r="BQ77" s="112"/>
       <c r="BR77" s="112"/>
-    </row>
-    <row r="78" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS77" s="112"/>
+    </row>
+    <row r="78" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD78" s="112"/>
       <c r="BE78" s="112"/>
       <c r="BF78" s="112"/>
@@ -15081,8 +15248,9 @@
       <c r="BP78" s="112"/>
       <c r="BQ78" s="112"/>
       <c r="BR78" s="112"/>
-    </row>
-    <row r="79" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS78" s="112"/>
+    </row>
+    <row r="79" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD79" s="112"/>
       <c r="BE79" s="112"/>
       <c r="BF79" s="112"/>
@@ -15098,8 +15266,9 @@
       <c r="BP79" s="112"/>
       <c r="BQ79" s="112"/>
       <c r="BR79" s="112"/>
-    </row>
-    <row r="80" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="BS79" s="112"/>
+    </row>
+    <row r="80" spans="2:71" x14ac:dyDescent="0.2">
       <c r="BD80" s="112"/>
       <c r="BE80" s="112"/>
       <c r="BF80" s="112"/>
@@ -15115,8 +15284,9 @@
       <c r="BP80" s="112"/>
       <c r="BQ80" s="112"/>
       <c r="BR80" s="112"/>
-    </row>
-    <row r="81" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS80" s="112"/>
+    </row>
+    <row r="81" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD81" s="112"/>
       <c r="BE81" s="112"/>
       <c r="BF81" s="112"/>
@@ -15132,8 +15302,9 @@
       <c r="BP81" s="112"/>
       <c r="BQ81" s="112"/>
       <c r="BR81" s="112"/>
-    </row>
-    <row r="82" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS81" s="112"/>
+    </row>
+    <row r="82" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD82" s="112"/>
       <c r="BE82" s="112"/>
       <c r="BF82" s="112"/>
@@ -15149,8 +15320,9 @@
       <c r="BP82" s="112"/>
       <c r="BQ82" s="112"/>
       <c r="BR82" s="112"/>
-    </row>
-    <row r="83" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS82" s="112"/>
+    </row>
+    <row r="83" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD83" s="112"/>
       <c r="BE83" s="112"/>
       <c r="BF83" s="112"/>
@@ -15166,8 +15338,9 @@
       <c r="BP83" s="112"/>
       <c r="BQ83" s="112"/>
       <c r="BR83" s="112"/>
-    </row>
-    <row r="84" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS83" s="112"/>
+    </row>
+    <row r="84" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD84" s="112"/>
       <c r="BE84" s="112"/>
       <c r="BF84" s="112"/>
@@ -15183,8 +15356,9 @@
       <c r="BP84" s="112"/>
       <c r="BQ84" s="112"/>
       <c r="BR84" s="112"/>
-    </row>
-    <row r="85" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS84" s="112"/>
+    </row>
+    <row r="85" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD85" s="112"/>
       <c r="BE85" s="112"/>
       <c r="BF85" s="112"/>
@@ -15200,8 +15374,9 @@
       <c r="BP85" s="112"/>
       <c r="BQ85" s="112"/>
       <c r="BR85" s="112"/>
-    </row>
-    <row r="86" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS85" s="112"/>
+    </row>
+    <row r="86" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD86" s="112"/>
       <c r="BE86" s="112"/>
       <c r="BF86" s="112"/>
@@ -15217,8 +15392,9 @@
       <c r="BP86" s="112"/>
       <c r="BQ86" s="112"/>
       <c r="BR86" s="112"/>
-    </row>
-    <row r="87" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS86" s="112"/>
+    </row>
+    <row r="87" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD87" s="112"/>
       <c r="BE87" s="112"/>
       <c r="BF87" s="112"/>
@@ -15234,8 +15410,9 @@
       <c r="BP87" s="112"/>
       <c r="BQ87" s="112"/>
       <c r="BR87" s="112"/>
-    </row>
-    <row r="88" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS87" s="112"/>
+    </row>
+    <row r="88" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD88" s="112"/>
       <c r="BE88" s="112"/>
       <c r="BF88" s="112"/>
@@ -15251,8 +15428,9 @@
       <c r="BP88" s="112"/>
       <c r="BQ88" s="112"/>
       <c r="BR88" s="112"/>
-    </row>
-    <row r="89" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS88" s="112"/>
+    </row>
+    <row r="89" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD89" s="112"/>
       <c r="BE89" s="112"/>
       <c r="BF89" s="112"/>
@@ -15268,8 +15446,9 @@
       <c r="BP89" s="112"/>
       <c r="BQ89" s="112"/>
       <c r="BR89" s="112"/>
-    </row>
-    <row r="90" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS89" s="112"/>
+    </row>
+    <row r="90" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD90" s="112"/>
       <c r="BE90" s="112"/>
       <c r="BF90" s="112"/>
@@ -15285,8 +15464,9 @@
       <c r="BP90" s="112"/>
       <c r="BQ90" s="112"/>
       <c r="BR90" s="112"/>
-    </row>
-    <row r="91" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS90" s="112"/>
+    </row>
+    <row r="91" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD91" s="112"/>
       <c r="BE91" s="112"/>
       <c r="BF91" s="112"/>
@@ -15302,8 +15482,9 @@
       <c r="BP91" s="112"/>
       <c r="BQ91" s="112"/>
       <c r="BR91" s="112"/>
-    </row>
-    <row r="92" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS91" s="112"/>
+    </row>
+    <row r="92" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD92" s="112"/>
       <c r="BE92" s="112"/>
       <c r="BF92" s="112"/>
@@ -15319,8 +15500,9 @@
       <c r="BP92" s="112"/>
       <c r="BQ92" s="112"/>
       <c r="BR92" s="112"/>
-    </row>
-    <row r="93" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS92" s="112"/>
+    </row>
+    <row r="93" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD93" s="112"/>
       <c r="BE93" s="112"/>
       <c r="BF93" s="112"/>
@@ -15336,8 +15518,9 @@
       <c r="BP93" s="112"/>
       <c r="BQ93" s="112"/>
       <c r="BR93" s="112"/>
-    </row>
-    <row r="94" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS93" s="112"/>
+    </row>
+    <row r="94" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD94" s="112"/>
       <c r="BE94" s="112"/>
       <c r="BF94" s="112"/>
@@ -15353,8 +15536,9 @@
       <c r="BP94" s="112"/>
       <c r="BQ94" s="112"/>
       <c r="BR94" s="112"/>
-    </row>
-    <row r="95" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS94" s="112"/>
+    </row>
+    <row r="95" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD95" s="112"/>
       <c r="BE95" s="112"/>
       <c r="BF95" s="112"/>
@@ -15370,8 +15554,9 @@
       <c r="BP95" s="112"/>
       <c r="BQ95" s="112"/>
       <c r="BR95" s="112"/>
-    </row>
-    <row r="96" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS95" s="112"/>
+    </row>
+    <row r="96" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD96" s="112"/>
       <c r="BE96" s="112"/>
       <c r="BF96" s="112"/>
@@ -15387,8 +15572,9 @@
       <c r="BP96" s="112"/>
       <c r="BQ96" s="112"/>
       <c r="BR96" s="112"/>
-    </row>
-    <row r="97" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS96" s="112"/>
+    </row>
+    <row r="97" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD97" s="112"/>
       <c r="BE97" s="112"/>
       <c r="BF97" s="112"/>
@@ -15404,8 +15590,9 @@
       <c r="BP97" s="112"/>
       <c r="BQ97" s="112"/>
       <c r="BR97" s="112"/>
-    </row>
-    <row r="98" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS97" s="112"/>
+    </row>
+    <row r="98" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD98" s="112"/>
       <c r="BE98" s="112"/>
       <c r="BF98" s="112"/>
@@ -15421,8 +15608,9 @@
       <c r="BP98" s="112"/>
       <c r="BQ98" s="112"/>
       <c r="BR98" s="112"/>
-    </row>
-    <row r="99" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS98" s="112"/>
+    </row>
+    <row r="99" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD99" s="112"/>
       <c r="BE99" s="112"/>
       <c r="BF99" s="112"/>
@@ -15438,8 +15626,9 @@
       <c r="BP99" s="112"/>
       <c r="BQ99" s="112"/>
       <c r="BR99" s="112"/>
-    </row>
-    <row r="100" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS99" s="112"/>
+    </row>
+    <row r="100" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD100" s="112"/>
       <c r="BE100" s="112"/>
       <c r="BF100" s="112"/>
@@ -15455,8 +15644,9 @@
       <c r="BP100" s="112"/>
       <c r="BQ100" s="112"/>
       <c r="BR100" s="112"/>
-    </row>
-    <row r="101" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS100" s="112"/>
+    </row>
+    <row r="101" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD101" s="112"/>
       <c r="BE101" s="112"/>
       <c r="BF101" s="112"/>
@@ -15472,8 +15662,9 @@
       <c r="BP101" s="112"/>
       <c r="BQ101" s="112"/>
       <c r="BR101" s="112"/>
-    </row>
-    <row r="102" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS101" s="112"/>
+    </row>
+    <row r="102" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD102" s="112"/>
       <c r="BE102" s="112"/>
       <c r="BF102" s="112"/>
@@ -15489,8 +15680,9 @@
       <c r="BP102" s="112"/>
       <c r="BQ102" s="112"/>
       <c r="BR102" s="112"/>
-    </row>
-    <row r="103" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS102" s="112"/>
+    </row>
+    <row r="103" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD103" s="112"/>
       <c r="BE103" s="112"/>
       <c r="BF103" s="112"/>
@@ -15506,8 +15698,9 @@
       <c r="BP103" s="112"/>
       <c r="BQ103" s="112"/>
       <c r="BR103" s="112"/>
-    </row>
-    <row r="104" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS103" s="112"/>
+    </row>
+    <row r="104" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD104" s="112"/>
       <c r="BE104" s="112"/>
       <c r="BF104" s="112"/>
@@ -15523,8 +15716,9 @@
       <c r="BP104" s="112"/>
       <c r="BQ104" s="112"/>
       <c r="BR104" s="112"/>
-    </row>
-    <row r="105" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS104" s="112"/>
+    </row>
+    <row r="105" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD105" s="112"/>
       <c r="BE105" s="112"/>
       <c r="BF105" s="112"/>
@@ -15540,8 +15734,9 @@
       <c r="BP105" s="112"/>
       <c r="BQ105" s="112"/>
       <c r="BR105" s="112"/>
-    </row>
-    <row r="106" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS105" s="112"/>
+    </row>
+    <row r="106" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD106" s="112"/>
       <c r="BE106" s="112"/>
       <c r="BF106" s="112"/>
@@ -15557,8 +15752,9 @@
       <c r="BP106" s="112"/>
       <c r="BQ106" s="112"/>
       <c r="BR106" s="112"/>
-    </row>
-    <row r="107" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS106" s="112"/>
+    </row>
+    <row r="107" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD107" s="112"/>
       <c r="BE107" s="112"/>
       <c r="BF107" s="112"/>
@@ -15574,8 +15770,9 @@
       <c r="BP107" s="112"/>
       <c r="BQ107" s="112"/>
       <c r="BR107" s="112"/>
-    </row>
-    <row r="108" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS107" s="112"/>
+    </row>
+    <row r="108" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD108" s="112"/>
       <c r="BE108" s="112"/>
       <c r="BF108" s="112"/>
@@ -15591,8 +15788,9 @@
       <c r="BP108" s="112"/>
       <c r="BQ108" s="112"/>
       <c r="BR108" s="112"/>
-    </row>
-    <row r="109" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS108" s="112"/>
+    </row>
+    <row r="109" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD109" s="112"/>
       <c r="BE109" s="112"/>
       <c r="BF109" s="112"/>
@@ -15608,8 +15806,9 @@
       <c r="BP109" s="112"/>
       <c r="BQ109" s="112"/>
       <c r="BR109" s="112"/>
-    </row>
-    <row r="110" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS109" s="112"/>
+    </row>
+    <row r="110" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD110" s="112"/>
       <c r="BE110" s="112"/>
       <c r="BF110" s="112"/>
@@ -15625,8 +15824,9 @@
       <c r="BP110" s="112"/>
       <c r="BQ110" s="112"/>
       <c r="BR110" s="112"/>
-    </row>
-    <row r="111" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS110" s="112"/>
+    </row>
+    <row r="111" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD111" s="112"/>
       <c r="BE111" s="112"/>
       <c r="BF111" s="112"/>
@@ -15642,8 +15842,9 @@
       <c r="BP111" s="112"/>
       <c r="BQ111" s="112"/>
       <c r="BR111" s="112"/>
-    </row>
-    <row r="112" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS111" s="112"/>
+    </row>
+    <row r="112" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD112" s="112"/>
       <c r="BE112" s="112"/>
       <c r="BF112" s="112"/>
@@ -15659,8 +15860,9 @@
       <c r="BP112" s="112"/>
       <c r="BQ112" s="112"/>
       <c r="BR112" s="112"/>
-    </row>
-    <row r="113" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS112" s="112"/>
+    </row>
+    <row r="113" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD113" s="112"/>
       <c r="BE113" s="112"/>
       <c r="BF113" s="112"/>
@@ -15676,8 +15878,9 @@
       <c r="BP113" s="112"/>
       <c r="BQ113" s="112"/>
       <c r="BR113" s="112"/>
-    </row>
-    <row r="114" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS113" s="112"/>
+    </row>
+    <row r="114" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD114" s="112"/>
       <c r="BE114" s="112"/>
       <c r="BF114" s="112"/>
@@ -15693,8 +15896,9 @@
       <c r="BP114" s="112"/>
       <c r="BQ114" s="112"/>
       <c r="BR114" s="112"/>
-    </row>
-    <row r="115" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS114" s="112"/>
+    </row>
+    <row r="115" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD115" s="112"/>
       <c r="BE115" s="112"/>
       <c r="BF115" s="112"/>
@@ -15710,8 +15914,9 @@
       <c r="BP115" s="112"/>
       <c r="BQ115" s="112"/>
       <c r="BR115" s="112"/>
-    </row>
-    <row r="116" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS115" s="112"/>
+    </row>
+    <row r="116" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD116" s="112"/>
       <c r="BE116" s="112"/>
       <c r="BF116" s="112"/>
@@ -15727,8 +15932,9 @@
       <c r="BP116" s="112"/>
       <c r="BQ116" s="112"/>
       <c r="BR116" s="112"/>
-    </row>
-    <row r="117" spans="56:70" x14ac:dyDescent="0.2">
+      <c r="BS116" s="112"/>
+    </row>
+    <row r="117" spans="56:71" x14ac:dyDescent="0.2">
       <c r="BD117" s="112"/>
       <c r="BE117" s="112"/>
       <c r="BF117" s="112"/>
@@ -15744,10 +15950,16 @@
       <c r="BP117" s="112"/>
       <c r="BQ117" s="112"/>
       <c r="BR117" s="112"/>
+      <c r="BS117" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="BP5:BR5"/>
+    <mergeCell ref="B67:S67"/>
+    <mergeCell ref="B5:G6"/>
+    <mergeCell ref="AN5:AQ5"/>
+    <mergeCell ref="AV5:AY5"/>
+    <mergeCell ref="AR5:AU5"/>
+    <mergeCell ref="BP5:BS5"/>
     <mergeCell ref="BL5:BO5"/>
     <mergeCell ref="BH5:BK5"/>
     <mergeCell ref="B3:F3"/>
@@ -15755,11 +15967,6 @@
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="AZ5:BC5"/>
     <mergeCell ref="BD5:BG5"/>
-    <mergeCell ref="B67:S67"/>
-    <mergeCell ref="B5:G6"/>
-    <mergeCell ref="AN5:AQ5"/>
-    <mergeCell ref="AV5:AY5"/>
-    <mergeCell ref="AR5:AU5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.17" top="0" bottom="0" header="0.16" footer="0.17"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
